--- a/medicine/Pharmacie/Abbott_(entreprise)/Abbott_(entreprise).xlsx
+++ b/medicine/Pharmacie/Abbott_(entreprise)/Abbott_(entreprise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Abbott Laboratories est une entreprise pharmaceutique américaine, fondée à Chicago en 1888 par Wallace Calvin Abbott. Son siège se trouve à Abbott Park, dans la ville de North Chicago, une banlieue de Chicago. Aujourd'hui, Abbott compte environ 90 000 salariés[2].
+Abbott Laboratories est une entreprise pharmaceutique américaine, fondée à Chicago en 1888 par Wallace Calvin Abbott. Son siège se trouve à Abbott Park, dans la ville de North Chicago, une banlieue de Chicago. Aujourd'hui, Abbott compte environ 90 000 salariés.
 La société vend des dispositifs médicaux, des diagnostics, des médicaments génériques de marque et des produits nutritionnels.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1888, le docteur Wallace C. Abbott, médecin praticien, commence à fabriquer les granules dosimétriques, des pilules minuscules qui permettent un dosage plus précis et plus efficace des traitements, en utilisant les parties actives des plantes médicinales. En 1894, le groupe Abbott est créé sous la raison sociale Abbott Alkaloidal Company.
 En 1906, Abbott met en place son premier réseau de visiteurs médicaux, et en 1910, le laboratoire s'installe à New York, San Francisco, Seattle, Toronto, en Inde et en Europe (Londres). En 1915, le laboratoire se renomme « Abbott ». En 1916, Abbott acquiert son premier médicament synthétique, le Chlorazène, un agent antiseptique utilisé sur les champs de bataille de la Première Guerre mondiale pour nettoyer les blessures.
@@ -523,11 +537,11 @@
 En 1959, Abbott lance son nouveau logo, le symbole « a » stylisé toujours utilisé aujourd'hui. En 1964, Abbott se lance dans la nutrition avec l'acquisition des laboratoires diététiques M&amp;R, basés à Columbus, Ohio.
 En 1985, Abbott lance le premier test de dépistage du VIH. En 1988, Abbott lance IMx, un instrument de diagnostic qui deviendra le système d'immunoanalyse le plus utilisé dans le monde. En 1991, Abbott entre sur le marché de l'hématologie avec l'acquisition de Sequoia-Turner Corp. En 1996, Abbott lance le premier inhibiteur de protéase utilisé dans le traitement du VIH/Sida. Abbott reçoit pour cela le prix Galien, la plus haute récompense scientifique en France.
 En 2001, Abbott augmente sa taille en acquérant les activités pharmaceutiques du groupe chimique allemand BASF, les laboratoires Knoll AG (de). En 2004, Abbott se sépare d'un certain nombre d'activités hospitalières en créant la société Hospira, qui d'emblée figure dans les dix premières entreprises mondiales dans les domaines des génériques injectables, des systèmes électroniques d'administration, de l'analyse autocontrôlée, de la production de produits stériles, des systèmes de perfusion et des systèmes de soins intensifs. En 2006, Abbott achète les activités vasculaires et endovasculaires de Guidant.
-Abbott cherche à se diversifier géographiquement. En septembre 2009, il acquiert pour 5,2 milliards d'euros les activités pharmaceutiques du groupe belge Solvay qui lui permettent de se développer dans les pays émergents, et notamment en Turquie, Pologne, Russie, Brésil. En mai 2010, Abbott annonce le rachat de l'activité génériques du groupe indien Piramal pour 3,72 milliards de dollars[4].
+Abbott cherche à se diversifier géographiquement. En septembre 2009, il acquiert pour 5,2 milliards d'euros les activités pharmaceutiques du groupe belge Solvay qui lui permettent de se développer dans les pays émergents, et notamment en Turquie, Pologne, Russie, Brésil. En mai 2010, Abbott annonce le rachat de l'activité génériques du groupe indien Piramal pour 3,72 milliards de dollars.
 En 2011, Abbott se sépare en deux groupes distincts : AbbVie d'un côté et Abbott de l'autre.
-En mai 2014, Abbott acquiert l'entreprise chilienne de médicaments génériques CFR Pharmaceuticals pour 2,9 milliards de dollars[5]. En juin 2014, Abbott acquiert l'entreprise russe Veropharm pour 495 millions de dollars[6]. En juillet 2014, Abbott vend son activité générique en dehors des États-Unis à Mylan pour 5,3 milliards de dollars. Par cette opération, Mylan déménage son siège social aux Pays-Bas[7].
-En février 2016, Abbott annonce l'acquisition d'Alere, une entreprise présente dans les diagnostics médicaux, pour 5,8 milliards de dollars[8], avant d'annoncer en décembre 2016, souhaiter annuler cette acquisition[9]. En avril 2017, Abbott annonce réduire son offre d'acquisition sur Alere à 5,3 milliards de dollars[10].
-En avril 2016, Abbott annonce l'acquisition de St. Jude Medical pour 25 milliards de dollars, pour renforcer ses activités dans la cardiologie[11]. En septembre 2016, Abbott annonce la vente de ses activités ophtalmologie à Johnson &amp; Johnson pour 4,3 milliards de dollars[12]. En octobre 2016, Abbott annonce la vente de certaines de ses activités, et celle de St. Jude Medical, dans le secteur vasculaire à Terumo pour 1,12 milliard de dollars[13].
+En mai 2014, Abbott acquiert l'entreprise chilienne de médicaments génériques CFR Pharmaceuticals pour 2,9 milliards de dollars. En juin 2014, Abbott acquiert l'entreprise russe Veropharm pour 495 millions de dollars. En juillet 2014, Abbott vend son activité générique en dehors des États-Unis à Mylan pour 5,3 milliards de dollars. Par cette opération, Mylan déménage son siège social aux Pays-Bas.
+En février 2016, Abbott annonce l'acquisition d'Alere, une entreprise présente dans les diagnostics médicaux, pour 5,8 milliards de dollars, avant d'annoncer en décembre 2016, souhaiter annuler cette acquisition. En avril 2017, Abbott annonce réduire son offre d'acquisition sur Alere à 5,3 milliards de dollars.
+En avril 2016, Abbott annonce l'acquisition de St. Jude Medical pour 25 milliards de dollars, pour renforcer ses activités dans la cardiologie. En septembre 2016, Abbott annonce la vente de ses activités ophtalmologie à Johnson &amp; Johnson pour 4,3 milliards de dollars. En octobre 2016, Abbott annonce la vente de certaines de ses activités, et celle de St. Jude Medical, dans le secteur vasculaire à Terumo pour 1,12 milliard de dollars.
 </t>
         </is>
       </c>
@@ -556,9 +570,11 @@
           <t>Domaines de compétence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jusqu'en 2011, Abbott était présent dans les domaines suivants[14] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jusqu'en 2011, Abbott était présent dans les domaines suivants : 
 l'anesthésie depuis les années 1930.
 l'antibiothérapie depuis le début des années 1950, avec notamment l'érythromycine en 1977.
 la surveillance du diabète avec les acquisitions de MediSense en 1996 puis de TheraSense en 2004.
@@ -598,9 +614,11 @@
           <t>Dirigeants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Miles D. White dirige Abbott depuis 1999. À ce titre, il a touché près de 22 millions de dollars en 2009[15].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Miles D. White dirige Abbott depuis 1999. À ce titre, il a touché près de 22 millions de dollars en 2009.
 </t>
         </is>
       </c>
@@ -631,12 +649,87 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aux États-Unis
-Selon le Center for Responsive Politics, les dépenses de lobbying d'Abbott aux États-Unis s'élèvent en 2017 à 4 150 000 dollars[16].
-Auprès des institutions de l'Union européenne
-Abbott est inscrit depuis 2014 au registre de transparence des représentants d'intérêts auprès de la Commission européenne. Elle déclare en 2017 pour cette activité des dépenses annuelles d'un montant compris entre 400 000 et 500 000 euros[17].
-En France
-Pour l'année 2017, Abbott France déclare à la Haute Autorité pour la transparence de la vie publique exercer des activités de lobbying en France pour un montant qui n'excède pas 75 000 euros[18].
+          <t>Aux États-Unis</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le Center for Responsive Politics, les dépenses de lobbying d'Abbott aux États-Unis s'élèvent en 2017 à 4 150 000 dollars.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Abbott_(entreprise)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbott_(entreprise)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lobbying</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Auprès des institutions de l'Union européenne</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abbott est inscrit depuis 2014 au registre de transparence des représentants d'intérêts auprès de la Commission européenne. Elle déclare en 2017 pour cette activité des dépenses annuelles d'un montant compris entre 400 000 et 500 000 euros.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Abbott_(entreprise)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abbott_(entreprise)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lobbying</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour l'année 2017, Abbott France déclare à la Haute Autorité pour la transparence de la vie publique exercer des activités de lobbying en France pour un montant qui n'excède pas 75 000 euros.
 </t>
         </is>
       </c>
